--- a/excel_files/8.9.1.1.xlsx
+++ b/excel_files/8.9.1.1.xlsx
@@ -609,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -621,7 +621,7 @@
     <col min="4" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48.75" customHeight="1">
+    <row r="1" spans="1:17" ht="48.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -632,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -643,8 +643,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -693,8 +693,11 @@
       <c r="P4" s="7">
         <v>2019</v>
       </c>
+      <c r="Q4" s="7">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" s="9" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" s="9" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -743,8 +746,11 @@
       <c r="P5" s="15">
         <v>5.0999999999999996</v>
       </c>
+      <c r="Q5" s="15">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="B6" s="8"/>
     </row>
   </sheetData>

--- a/excel_files/8.9.1.1.xlsx
+++ b/excel_files/8.9.1.1.xlsx
@@ -609,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -621,7 +621,7 @@
     <col min="4" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48.75" customHeight="1">
+    <row r="1" spans="1:18" ht="48.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -632,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -643,8 +643,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -696,8 +696,11 @@
       <c r="Q4" s="7">
         <v>2020</v>
       </c>
+      <c r="R4" s="7">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" s="9" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="5" spans="1:18" s="9" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -749,8 +752,11 @@
       <c r="Q5" s="15">
         <v>3.3</v>
       </c>
+      <c r="R5" s="15">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="B6" s="8"/>
     </row>
   </sheetData>

--- a/excel_files/8.9.1.1.xlsx
+++ b/excel_files/8.9.1.1.xlsx
@@ -609,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -621,7 +621,7 @@
     <col min="4" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48.75" customHeight="1">
+    <row r="1" spans="1:19" ht="48.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -632,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -643,8 +643,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -699,8 +699,11 @@
       <c r="R4" s="7">
         <v>2021</v>
       </c>
+      <c r="S4" s="7">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" ht="24" customHeight="1" thickBot="1">
+    <row r="5" spans="1:19" s="9" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -747,16 +750,19 @@
         <v>5</v>
       </c>
       <c r="P5" s="15">
-        <v>5.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q5" s="15">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="R5" s="15">
-        <v>3.6</v>
+        <v>3.2</v>
+      </c>
+      <c r="S5" s="15">
+        <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="B6" s="8"/>
     </row>
   </sheetData>

--- a/excel_files/8.9.1.1.xlsx
+++ b/excel_files/8.9.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Доля туризма в ВВП</t>
   </si>
@@ -43,13 +43,122 @@
     <t>(паыйз менен)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.9.1.1 Туризмдин жыйынды ИДПга карата пайыздык катышта ИДПга түз салымы </t>
-  </si>
-  <si>
-    <t>8.9.1.1 Непосредственный вклад туризма в ВВП в процентном отношении к совокупному ВВП</t>
-  </si>
-  <si>
-    <t>8.9.1.1 Tourism direct GDP as a proportion of total GDP</t>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2019-жылдан баштап маалыматтар, 2008 жылдагы Улуттук Эсептер Тутумунун эл аралык стандарттарына ылайык эсептелген </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Данные с 2019 года рассчитаны по международному стандарту Системы Национальных Счетов 2008 года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Data from 2019 are calculated according to the international standard of the System of National Accounts 2008</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 8.9.1.1 Туризмдин жыйынды ИДПга карата пайыздык катышта  ИДПга түз салымы</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF212121"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.9.1.1 Непосредственный вклад туризма в ВВП в процентном отношении к совокупному ВВП</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.9.1.1 Tourism direct GDP as a proportion of total GDP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -61,7 +170,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,17 +276,47 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,7 +360,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -243,8 +382,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -252,9 +392,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,7 +404,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -287,8 +423,21 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
+    <cellStyle name="Normal_GDP1" xfId="19"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 10" xfId="4"/>
     <cellStyle name="Обычный 2" xfId="1"/>
@@ -609,11 +758,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -621,152 +768,166 @@
     <col min="4" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48.75" customHeight="1">
+    <row r="1" spans="1:20" ht="48.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2007</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>2008</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>2009</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>2010</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>2011</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>2012</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>2013</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>2014</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>2015</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>2016</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="8">
         <v>2017</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>2018</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>2019</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <v>2020</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <v>2021</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <v>2022</v>
       </c>
+      <c r="T4" s="6">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" s="9" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:20" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>4.2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>4</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>3.7</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>4.5</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="12">
         <v>4.3</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="12">
         <v>4.7</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="12">
         <v>5</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="13">
         <v>5</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="13">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="13">
         <v>2.9</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="13">
         <v>3.2</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="13">
         <v>3.4</v>
       </c>
+      <c r="T5" s="13">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:20" ht="42" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
